--- a/production_recipe_management_tool_v1.1/data/Recipes_tmp/1500_gm_Fried Chicken 1st Marination Popcorn.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Recipes_tmp/1500_gm_Fried Chicken 1st Marination Popcorn.xlsx
@@ -435,7 +435,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D2">
         <v>0.04615384615384616</v>
@@ -449,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>0.027</v>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D4">
         <v>0.001</v>
@@ -480,7 +480,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="D5">
         <v>0.28</v>

--- a/production_recipe_management_tool_v1.1/data/Recipes_tmp/1500_gm_Fried Chicken 1st Marination Popcorn.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Recipes_tmp/1500_gm_Fried Chicken 1st Marination Popcorn.xlsx
@@ -435,7 +435,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>233.3333333333333</v>
       </c>
       <c r="D2">
         <v>0.04615384615384616</v>
@@ -449,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>0.027</v>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>1666.666666666667</v>
       </c>
       <c r="D4">
         <v>0.001</v>
@@ -480,7 +480,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="D5">
         <v>0.28</v>

--- a/production_recipe_management_tool_v1.1/data/Recipes_tmp/1500_gm_Fried Chicken 1st Marination Popcorn.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Recipes_tmp/1500_gm_Fried Chicken 1st Marination Popcorn.xlsx
@@ -435,7 +435,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>233.3333333333333</v>
+        <v>186.6666666666667</v>
       </c>
       <c r="D2">
         <v>0.04615384615384616</v>
@@ -449,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>0.027</v>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1666.666666666667</v>
+        <v>1333.333333333333</v>
       </c>
       <c r="D4">
         <v>0.001</v>
@@ -480,7 +480,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="D5">
         <v>0.28</v>
